--- a/biology/Médecine/Jean-Pierre_Grünfeld/Jean-Pierre_Grünfeld.xlsx
+++ b/biology/Médecine/Jean-Pierre_Grünfeld/Jean-Pierre_Grünfeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Gr%C3%BCnfeld</t>
+          <t>Jean-Pierre_Grünfeld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Grünfeld est un médecin néphrologue français. Il fut médecin de l'hôpital Necker-Enfants malades et professeur des Universités de l'université Paris Descartes (Paris V). Il est membre correspondant de l'Académie des sciences[1].
-Il est l'auteur ou le coauteur de plus de 300 publications scientifiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Grünfeld est un médecin néphrologue français. Il fut médecin de l'hôpital Necker-Enfants malades et professeur des Universités de l'université Paris Descartes (Paris V). Il est membre correspondant de l'Académie des sciences.
+Il est l'auteur ou le coauteur de plus de 300 publications scientifiques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Gr%C3%BCnfeld</t>
+          <t>Jean-Pierre_Grünfeld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Plan cancer</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2009, le Pr Jean-Pierre Grünfeld a remis au Président Nicolas Sarkozy ses propositions pour donner un « nouvel élan » à la lutte contre le cancer, après les critiques formulées par la Cour des comptes et le Haut Conseil de la santé publique contre le Plan Cancer 2003-2007[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2009, le Pr Jean-Pierre Grünfeld a remis au Président Nicolas Sarkozy ses propositions pour donner un « nouvel élan » à la lutte contre le cancer, après les critiques formulées par la Cour des comptes et le Haut Conseil de la santé publique contre le Plan Cancer 2003-2007.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Gr%C3%BCnfeld</t>
+          <t>Jean-Pierre_Grünfeld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>AIRG-France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Grünfeld est le Président d'Honneur du Conseil Scientifique de l'AIRG-France (Association pour l'Information et la recherche sur les maladies Rénales Génétiques) dont il est l'un des fondateurs avec notamment le Dr Ginette Albouze et Ghislaine Vignaud.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Pierre_Gr%C3%BCnfeld</t>
+          <t>Jean-Pierre_Grünfeld</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médecine de la femme enceinte, de William M Barron, Marshall D Lindheimer, John M Davison, Jean-Pierre Grünfeld. Flammarion Médecine (4 janvier 1994).  (ISBN 2257102258)
 Cas cliniques en néphrologie-urologie, de Jean-Pierre Grünfeld et Bertrand Dufour. Flammarion Médecine (8 janvier 1992).  (ISBN 2257104676)</t>
